--- a/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
+++ b/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamat\Git\lantana\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3DE114-A790-408F-913F-E2B4ED30E95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EFEFD3-DCE8-4C6D-B577-D994C3D51575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{61CBB803-3BDB-4855-8C1F-1E0881913DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="15" xr2:uid="{61CBB803-3BDB-4855-8C1F-1E0881913DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="lantana" sheetId="4" r:id="rId1"/>
@@ -22,9 +22,13 @@
     <sheet name="画面論理クラス図" sheetId="13" r:id="rId7"/>
     <sheet name="物理ER図" sheetId="10" r:id="rId8"/>
     <sheet name="サーバサイド物理クラス図" sheetId="12" r:id="rId9"/>
-    <sheet name="画面物理クラス図" sheetId="14" r:id="rId10"/>
-    <sheet name="APIアドレス一覧" sheetId="8" r:id="rId11"/>
-    <sheet name="所感・著者紹介・リンク" sheetId="6" r:id="rId12"/>
+    <sheet name="画面物理クラス図1" sheetId="14" r:id="rId10"/>
+    <sheet name="画面物理クラス図2" sheetId="20" r:id="rId11"/>
+    <sheet name="シーケンス図1" sheetId="21" r:id="rId12"/>
+    <sheet name="シーケンス図2" sheetId="22" r:id="rId13"/>
+    <sheet name="シーケンス図3" sheetId="23" r:id="rId14"/>
+    <sheet name="APIアドレス一覧" sheetId="8" r:id="rId15"/>
+    <sheet name="所感・著者紹介・リンク" sheetId="6" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="117">
   <si>
     <t>ワイヤーフレーム作成（下書き・手書き）</t>
     <rPh sb="8" eb="10">
@@ -220,26 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユースケース図記述（Astah）</t>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユースケース記述記述（Astah）</t>
-    <rPh sb="6" eb="8">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>用途</t>
     <rPh sb="0" eb="2">
       <t>ヨウト</t>
@@ -808,25 +792,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面物理クラス図。実装対応</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サーバAPIアドレスとリクエスト・レスポンスデータ型一覧</t>
     <rPh sb="25" eb="26">
       <t>ガタ</t>
@@ -834,6 +799,136 @@
     <rPh sb="26" eb="28">
       <t>イチラン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図Lantana画面初期化まで</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図LantanaLogViewerPage表示まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図LantanaLogViewerPageのLantanaDetailView表示まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面物理クラス図1</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面物理クラス図2</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面物理クラス図。通信用データ型定義。実装対応</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ツウシンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面物理クラス図。画面コンポーネント定義。実装対応</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lantana画面初期化までのシーケンス図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LantanaLogViewerPage表示までのシーケンス図</t>
+    <rPh sb="30" eb="31">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LantanaLogViewerPageのLantanaDetailView表示までのシーケンス図</t>
+    <rPh sb="48" eb="49">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -936,7 +1031,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,7 +1055,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,11 +1083,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,7 +1110,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB6F27C-7287-4031-9FB9-782BF8EE48E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1326,7 +1421,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>5</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
@@ -1448,6 +1543,13 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　　（手続き的なプログラムになると思われるので本ドキュメントには設計を載せない）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>　　</a:t>
           </a:r>
           <a:r>
@@ -1565,12 +1667,282 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>22118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED2CC90-9B94-9685-B2AC-45CB74D03AB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="0"/>
+          <a:ext cx="7772400" cy="9308993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>196171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D13B6FF-A1C1-26BA-8A4E-035EC96D4EAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="742950"/>
+          <a:ext cx="15259050" cy="15674296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8036A057-95E1-CBCD-E0A4-46B6C00C495E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="742950"/>
+          <a:ext cx="14544674" cy="10410736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>613740</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162703F4-12F9-DF97-B661-CCA91131B787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="742950"/>
+          <a:ext cx="14329740" cy="5962650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>742949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>677702</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE48FD5-D765-E313-893A-872A40001B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="742949"/>
+          <a:ext cx="15765302" cy="5029201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1590,7 +1962,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B0D0BD-3E09-89DC-5237-E328F0B8FED3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1715,7 +2087,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D77E8CE-546D-4F77-8606-A700705447DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +2206,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3031B91A-9FDF-4D82-A1F8-979A90E277A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +2267,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E93BB7E-D7F2-43F5-BD74-A3C303D22E69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2425,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFDDFC8-9B6B-4A4D-BC67-020899E70764}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2507,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BF21A1-E3BD-4269-B48A-F157DDBE9896}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2614,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632E546A-9E26-5682-DA13-330BAEFA74F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,13 +3100,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2795,13 +3167,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2862,13 +3234,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2929,13 +3301,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2996,13 +3368,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3063,13 +3435,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3130,13 +3502,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3197,13 +3569,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3264,13 +3636,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3331,13 +3703,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3398,13 +3770,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3465,13 +3837,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3599,13 +3971,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -3680,10 +4052,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF0A314-6E2C-813D-11F3-6C2DB4F66449}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3A6E17-9ECD-1572-447A-6F95F117C52B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3724,21 +4096,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>733424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>15210</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>85125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4698CB32-5272-8DC4-5E53-C38B58695D76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899DEE42-4839-1DB9-3E71-216D412B1859}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3760,8 +4132,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="742950"/>
-          <a:ext cx="12359610" cy="15163800"/>
+          <a:off x="0" y="733424"/>
+          <a:ext cx="13668374" cy="18668401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3779,21 +4151,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>739587</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>661146</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>180064</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>1207</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA74D6D-CDF3-9423-5245-856463A981D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A6AD6D-8F9D-711B-9730-554419920807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,7 +4174,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3815,8 +4187,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="739587"/>
-          <a:ext cx="12281646" cy="19241271"/>
+          <a:off x="0" y="739588"/>
+          <a:ext cx="16091646" cy="25651472"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3845,10 +4217,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DA2B8A-8956-3D3E-92D9-593D3555A979}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A3B98D-9FE9-C1B8-09CE-A2ECF2620FFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,21 +4261,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>733425</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>32206</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>472506</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583DF4C7-53B5-9242-F1DA-EE337666F01A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221F2F4B-284E-3DCC-F30D-A8FA29A3B97C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3925,8 +4297,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="733425"/>
-          <a:ext cx="12376606" cy="15973425"/>
+          <a:off x="0" y="742950"/>
+          <a:ext cx="15560106" cy="21174076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3944,21 +4316,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>742949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>7922</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>11850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00818DA6-7992-71EE-D652-E01C173E94B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393A2DDC-7084-BB5D-9219-C25BA54A873F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3967,7 +4339,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3980,8 +4352,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="742950"/>
-          <a:ext cx="12306300" cy="20010422"/>
+          <a:off x="0" y="742949"/>
+          <a:ext cx="14935200" cy="16680601"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3994,8 +4366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}" name="テーブル4" displayName="テーブル4" ref="A1:B13" totalsRowShown="0">
-  <autoFilter ref="A1:B13" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}" name="テーブル4" displayName="テーブル4" ref="A1:B17" totalsRowShown="0">
+  <autoFilter ref="A1:B17" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{33667A2D-9E2F-41FD-B9F1-4BC5072C6F97}" name="シートタイトル" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="2" xr3:uid="{39EBC6E4-FB9B-4F13-9E52-EA59DEF3B409}" name="説明"/>
@@ -4005,8 +4377,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C3C71EA0-5C86-44B7-8116-965348D2A589}" name="テーブル3" displayName="テーブル3" ref="A2:B17" totalsRowShown="0">
-  <autoFilter ref="A2:B17" xr:uid="{C3C71EA0-5C86-44B7-8116-965348D2A589}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C3C71EA0-5C86-44B7-8116-965348D2A589}" name="テーブル3" displayName="テーブル3" ref="A2:B15" totalsRowShown="0">
+  <autoFilter ref="A2:B15" xr:uid="{C3C71EA0-5C86-44B7-8116-965348D2A589}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{909A90CE-906B-4DCD-A912-0256E8AC00B4}" name="チェック"/>
     <tableColumn id="3" xr3:uid="{34F5ACD9-9875-4002-A600-E1C0684E67DB}" name="タイトル"/>
@@ -4328,7 +4700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD35750-36B7-4643-B2FF-83256F861E84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -4342,15 +4716,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AE22D9-FCFF-4E03-9FEF-BFCF54C997B6}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4372,11 +4746,168 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15B52CA-70C6-4A34-A8C3-25B7C4F02852}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBB82EC-3F9A-46C6-90BD-54B0F479E854}">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F56FAFC-3DE1-4AFD-BAF8-709CE9CBEAA2}">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D43F7A-7723-4517-9681-031104C329AF}">
+  <dimension ref="A1:V1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:V1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BFA91-78FF-48FF-9402-D2F936B6192D}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4390,7 +4921,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4399,274 +4930,274 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4681,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AE9615-A06D-446E-93B0-9E0B559E3E99}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4699,10 +5230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0815496-4F9B-47FE-B548-8030A1C1A6F3}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4713,106 +5244,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4827,9 +5390,13 @@
     <hyperlink ref="A8" location="画面論理クラス図!A1" display="画面論理クラス図" xr:uid="{168C7B26-CD79-4A01-B2A2-B7FA89B20659}"/>
     <hyperlink ref="A9" location="物理ER図!A1" display="物理ER図" xr:uid="{6A6BC364-9BFC-4C20-ACBF-5AB75791C5AA}"/>
     <hyperlink ref="A10" location="サーバサイド物理クラス図!A1" display="サーバサイド物理クラス図" xr:uid="{551EF2B3-882A-426B-95F2-9847AC541811}"/>
-    <hyperlink ref="A11" location="画面物理クラス図!A1" display="画面物理クラス図" xr:uid="{2E5BC1F6-E873-4A82-BE6A-6076AF49A23E}"/>
-    <hyperlink ref="A12" location="APIアドレス一覧!A1" display="APIアドレス一覧" xr:uid="{B138C97E-0D9D-4D83-A558-EC1A83C588FC}"/>
-    <hyperlink ref="A13" location="所感・著者紹介・リンク!A1" display="所感・著者紹介・リンク" xr:uid="{6AED2529-7FFE-4A35-B707-23D2D9B3A201}"/>
+    <hyperlink ref="A12" location="画面物理クラス図2!A1" display="画面物理クラス図2" xr:uid="{2E5BC1F6-E873-4A82-BE6A-6076AF49A23E}"/>
+    <hyperlink ref="A16" location="APIアドレス一覧!A1" display="APIアドレス一覧" xr:uid="{B138C97E-0D9D-4D83-A558-EC1A83C588FC}"/>
+    <hyperlink ref="A17" location="所感・著者紹介・リンク!A1" display="所感・著者紹介・リンク" xr:uid="{6AED2529-7FFE-4A35-B707-23D2D9B3A201}"/>
+    <hyperlink ref="A11" location="画面物理クラス図1!A1" display="画面物理クラス図1" xr:uid="{B7A1A4BC-99F1-417A-A3AE-884FF0373152}"/>
+    <hyperlink ref="A13" location="シーケンス図1!A1" display="シーケンス図1" xr:uid="{2681AEDE-D7B7-4C42-9A86-A69400B50E52}"/>
+    <hyperlink ref="A14" location="シーケンス図2!A1" display="シーケンス図2" xr:uid="{3DD87B47-4A4B-4207-9EBF-E2E551B5398A}"/>
+    <hyperlink ref="A15" location="シーケンス図3!A1" display="シーケンス図3" xr:uid="{61367FE4-C33C-43CF-8455-984A12FD56F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4856,10 +5423,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F794757-0297-4E91-9247-4DAC7E6C52FB}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4869,7 +5436,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="1"/>
@@ -4889,71 +5456,61 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4998,6 +5555,50 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>457200</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2057" r:id="rId5" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>457200</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2058" r:id="rId6" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>209550</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -5014,7 +5615,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2057" r:id="rId5" name="Check Box 9">
+            <control shapeId="2059" r:id="rId7" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5036,7 +5637,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2058" r:id="rId6" name="Check Box 10">
+            <control shapeId="2060" r:id="rId8" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5058,7 +5659,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2059" r:id="rId7" name="Check Box 11">
+            <control shapeId="2061" r:id="rId9" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5080,7 +5681,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2060" r:id="rId8" name="Check Box 12">
+            <control shapeId="2062" r:id="rId10" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5102,7 +5703,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2061" r:id="rId9" name="Check Box 13">
+            <control shapeId="2063" r:id="rId11" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5124,7 +5725,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2062" r:id="rId10" name="Check Box 14">
+            <control shapeId="2064" r:id="rId12" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5146,7 +5747,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2063" r:id="rId11" name="Check Box 15">
+            <control shapeId="2065" r:id="rId13" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5168,7 +5769,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2064" r:id="rId12" name="Check Box 16">
+            <control shapeId="2066" r:id="rId14" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5181,50 +5782,6 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2065" r:id="rId13" name="Check Box 17">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2066" r:id="rId14" name="Check Box 18">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>16</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5284,13 +5841,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5306,13 +5863,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>5</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -5333,7 +5890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381006FE-887D-4829-9FB8-79DE9685E981}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5341,7 +5898,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5363,14 +5920,14 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T55" sqref="T55"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5396,14 +5953,14 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5428,7 +5985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398E4518-2E79-41CF-B10B-F6C0FBA3070F}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5436,7 +5993,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5458,14 +6015,14 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>

--- a/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
+++ b/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamat\Git\lantana\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EFEFD3-DCE8-4C6D-B577-D994C3D51575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF481ED0-C5DD-450F-91F6-42673DCF6290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="15" xr2:uid="{61CBB803-3BDB-4855-8C1F-1E0881913DE8}"/>
   </bookViews>
@@ -1100,8 +1100,8 @@
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1119,7 +1119,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="19049"/>
-          <a:ext cx="7458076" cy="11439526"/>
+          <a:ext cx="7696200" cy="11439526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1154,6 +1154,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" baseline="0"/>
+            <a:t>　 </a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
             <a:t>気分記録アプリケーション「</a:t>
           </a:r>
@@ -1323,7 +1327,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>で設計書を書く。画面設計図に力を入れる。</a:t>
+            <a:t>で設計書を書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>き、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面設計図に力を入れる。</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1352,7 +1380,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>実装をすることによってドキュメントを磨いていく。</a:t>
+            <a:t>実装をすることによって</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、実現可能な</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ドキュメント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>として</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>磨いていく。</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1392,7 +1468,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
-            <a:t>5</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0"/>
@@ -1671,23 +1747,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>22118</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1048576</xdr:row>
+      <xdr:rowOff>12593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED2CC90-9B94-9685-B2AC-45CB74D03AB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1785,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7477125" y="0"/>
+          <a:off x="7743825" y="2133600"/>
           <a:ext cx="7772400" cy="9308993"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1717,6 +1793,180 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1CC9EA-2B55-0337-042E-1B769F398902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="142875"/>
+          <a:ext cx="523875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F951F5-0895-7197-8AE1-733AAA8B8F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7715250" y="1009650"/>
+          <a:ext cx="7734300" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユースケース図</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>左の要求をユースケース図に起こした（下図）。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1742,7 +1992,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D13B6FF-A1C1-26BA-8A4E-035EC96D4EAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +2047,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8036A057-95E1-CBCD-E0A4-46B6C00C495E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +2102,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162703F4-12F9-DF97-B661-CCA91131B787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +2157,7 @@
         <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE48FD5-D765-E313-893A-872A40001B07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +2212,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,29 +2289,337 @@
             </a:rPr>
             <a:t>所感</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>所感は適当に書きます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今回の開発はまぁまぁな楽しさでした。評価するならば</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>★★★☆☆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ぐらいです。前回の開発に比べて難易度が低かったからだと思います。コンポーネントも使い回すことができて爆速で開発できたものの、その分達成感を得られませんでした。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:prstClr val="black"/>
+              <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設計について</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>モデルは私史上最も美しいものになったと思います。が、相変わらず要素が多いので、見た人は引いてしまうかもしれないと思っています。改善案が思い付けばいいのですが・・・思いつかないです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設計と実装</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>今回は設計と実装の行き来に制約をかけずに開発しました。ゆるゆるのウォーターフォール開発です。出戻り回数は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>度しか発生しなかったのが嬉しいです。前回の短期間ウォーターフォール開発の反省を活かして、ユーザ操作の再生をイメージしながら設計しましたが、それによる結果なのだとしたら、もっと嬉しいです。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>開発モチベーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>途中から開発モチベーションの低下に悩まされました。「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lantana</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が完成したとして、使われるのか？」という思いと、睡眠不足によってです。さらには</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lantana</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>よりも作りたいライフログアプリケーション案を思いついてしまったので、画面実装はグダグダでした。なんとかドキュメント作成完了までたどり着けたのは奇跡です。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以上です。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次のライフログアプリケーション案があるので、</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Apple</a:t>
+            <a:t>Lantana</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>。ｪアッポｵゥ</a:t>
+            <a:t>開発が落ち着き次第開発に取り掛かろうと思います。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OracleSilverDBA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の資格勉強している時間が無い！！！😹）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -2087,7 +2645,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2764,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2825,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2958,32 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開発ドキュメント</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>設計図</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>: </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2425,7 +3008,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,16 +3073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2507,7 +3090,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +3098,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8429625" y="5553075"/>
+          <a:off x="9553575" y="5562600"/>
           <a:ext cx="4152900" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2591,6 +3174,162 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E24F7080-2AAD-9574-83AB-C84DF8F24669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553575" y="5800725"/>
+          <a:ext cx="3838575" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://github.com/mt3hr/lantana/tree/main/document</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30322B7B-5F9C-948F-A918-2B4F5A67DCED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553575" y="6029325"/>
+          <a:ext cx="3933825" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://github.com/mt3hr/lantana/tree/main/document/model</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2604,10 +3343,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2623,7 +3362,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7781925" cy="5324475"/>
+          <a:ext cx="7534275" cy="5467350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4055,7 +4794,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3A6E17-9ECD-1572-447A-6F95F117C52B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4110,7 +4849,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899DEE42-4839-1DB9-3E71-216D412B1859}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4165,7 +4904,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A6AD6D-8F9D-711B-9730-554419920807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4220,7 +4959,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A3B98D-9FE9-C1B8-09CE-A2ECF2620FFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4275,7 +5014,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221F2F4B-284E-3DCC-F30D-A8FA29A3B97C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4330,7 +5069,7 @@
         <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393A2DDC-7084-BB5D-9219-C25BA54A873F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4698,14 +5437,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD35750-36B7-4643-B2FF-83256F861E84}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="L49" sqref="A49:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="23" width="9" customWidth="1"/>
+    <col min="24" max="16384" width="9" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.4"/>
+    <row r="2" x14ac:dyDescent="0.4"/>
+    <row r="3" x14ac:dyDescent="0.4"/>
+    <row r="4" x14ac:dyDescent="0.4"/>
+    <row r="5" x14ac:dyDescent="0.4"/>
+    <row r="6" x14ac:dyDescent="0.4"/>
+    <row r="7" x14ac:dyDescent="0.4"/>
+    <row r="8" x14ac:dyDescent="0.4"/>
+    <row r="9" x14ac:dyDescent="0.4"/>
+    <row r="10" x14ac:dyDescent="0.4"/>
+    <row r="11" x14ac:dyDescent="0.4"/>
+    <row r="12" x14ac:dyDescent="0.4"/>
+    <row r="13" x14ac:dyDescent="0.4"/>
+    <row r="14" x14ac:dyDescent="0.4"/>
+    <row r="15" x14ac:dyDescent="0.4"/>
+    <row r="16" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
+    <row r="30" x14ac:dyDescent="0.4"/>
+    <row r="31" x14ac:dyDescent="0.4"/>
+    <row r="32" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
+    <row r="36" x14ac:dyDescent="0.4"/>
+    <row r="37" x14ac:dyDescent="0.4"/>
+    <row r="38" x14ac:dyDescent="0.4"/>
+    <row r="39" x14ac:dyDescent="0.4"/>
+    <row r="40" x14ac:dyDescent="0.4"/>
+    <row r="41" x14ac:dyDescent="0.4"/>
+    <row r="42" x14ac:dyDescent="0.4"/>
+    <row r="43" x14ac:dyDescent="0.4"/>
+    <row r="44" x14ac:dyDescent="0.4"/>
+    <row r="45" x14ac:dyDescent="0.4"/>
+    <row r="46" x14ac:dyDescent="0.4"/>
+    <row r="47" x14ac:dyDescent="0.4"/>
+    <row r="48" x14ac:dyDescent="0.4"/>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4714,13 +5506,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AE22D9-FCFF-4E03-9FEF-BFCF54C997B6}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="22" width="9" customWidth="1"/>
+    <col min="23" max="16384" width="9" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
@@ -4735,6 +5531,77 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
+    <row r="30" x14ac:dyDescent="0.4"/>
+    <row r="31" x14ac:dyDescent="0.4"/>
+    <row r="32" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
+    <row r="36" x14ac:dyDescent="0.4"/>
+    <row r="37" x14ac:dyDescent="0.4"/>
+    <row r="38" x14ac:dyDescent="0.4"/>
+    <row r="39" x14ac:dyDescent="0.4"/>
+    <row r="40" x14ac:dyDescent="0.4"/>
+    <row r="41" x14ac:dyDescent="0.4"/>
+    <row r="42" x14ac:dyDescent="0.4"/>
+    <row r="43" x14ac:dyDescent="0.4"/>
+    <row r="44" x14ac:dyDescent="0.4"/>
+    <row r="45" x14ac:dyDescent="0.4"/>
+    <row r="46" x14ac:dyDescent="0.4"/>
+    <row r="47" x14ac:dyDescent="0.4"/>
+    <row r="48" x14ac:dyDescent="0.4"/>
+    <row r="49" x14ac:dyDescent="0.4"/>
+    <row r="50" x14ac:dyDescent="0.4"/>
+    <row r="51" x14ac:dyDescent="0.4"/>
+    <row r="52" x14ac:dyDescent="0.4"/>
+    <row r="53" x14ac:dyDescent="0.4"/>
+    <row r="54" x14ac:dyDescent="0.4"/>
+    <row r="55" x14ac:dyDescent="0.4"/>
+    <row r="56" x14ac:dyDescent="0.4"/>
+    <row r="57" x14ac:dyDescent="0.4"/>
+    <row r="58" x14ac:dyDescent="0.4"/>
+    <row r="59" x14ac:dyDescent="0.4"/>
+    <row r="60" x14ac:dyDescent="0.4"/>
+    <row r="61" x14ac:dyDescent="0.4"/>
+    <row r="62" x14ac:dyDescent="0.4"/>
+    <row r="63" x14ac:dyDescent="0.4"/>
+    <row r="64" x14ac:dyDescent="0.4"/>
+    <row r="65" x14ac:dyDescent="0.4"/>
+    <row r="66" x14ac:dyDescent="0.4"/>
+    <row r="67" x14ac:dyDescent="0.4"/>
+    <row r="68" x14ac:dyDescent="0.4"/>
+    <row r="69" x14ac:dyDescent="0.4"/>
+    <row r="70" x14ac:dyDescent="0.4"/>
+    <row r="71" x14ac:dyDescent="0.4"/>
+    <row r="72" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -4747,13 +5614,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15B52CA-70C6-4A34-A8C3-25B7C4F02852}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="23" width="9" customWidth="1"/>
+    <col min="24" max="16384" width="9" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
@@ -4768,6 +5639,73 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
+    <row r="30" x14ac:dyDescent="0.4"/>
+    <row r="31" x14ac:dyDescent="0.4"/>
+    <row r="32" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
+    <row r="36" x14ac:dyDescent="0.4"/>
+    <row r="37" x14ac:dyDescent="0.4"/>
+    <row r="38" x14ac:dyDescent="0.4"/>
+    <row r="39" x14ac:dyDescent="0.4"/>
+    <row r="40" x14ac:dyDescent="0.4"/>
+    <row r="41" x14ac:dyDescent="0.4"/>
+    <row r="42" x14ac:dyDescent="0.4"/>
+    <row r="43" x14ac:dyDescent="0.4"/>
+    <row r="44" x14ac:dyDescent="0.4"/>
+    <row r="45" x14ac:dyDescent="0.4"/>
+    <row r="46" x14ac:dyDescent="0.4"/>
+    <row r="47" x14ac:dyDescent="0.4"/>
+    <row r="48" x14ac:dyDescent="0.4"/>
+    <row r="49" x14ac:dyDescent="0.4"/>
+    <row r="50" x14ac:dyDescent="0.4"/>
+    <row r="51" x14ac:dyDescent="0.4"/>
+    <row r="52" x14ac:dyDescent="0.4"/>
+    <row r="53" x14ac:dyDescent="0.4"/>
+    <row r="54" x14ac:dyDescent="0.4"/>
+    <row r="55" x14ac:dyDescent="0.4"/>
+    <row r="56" x14ac:dyDescent="0.4"/>
+    <row r="57" x14ac:dyDescent="0.4"/>
+    <row r="58" x14ac:dyDescent="0.4"/>
+    <row r="59" x14ac:dyDescent="0.4"/>
+    <row r="60" x14ac:dyDescent="0.4"/>
+    <row r="61" x14ac:dyDescent="0.4"/>
+    <row r="62" x14ac:dyDescent="0.4"/>
+    <row r="63" x14ac:dyDescent="0.4"/>
+    <row r="64" x14ac:dyDescent="0.4"/>
+    <row r="65" x14ac:dyDescent="0.4"/>
+    <row r="66" x14ac:dyDescent="0.4"/>
+    <row r="67" x14ac:dyDescent="0.4"/>
+    <row r="68" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -4780,13 +5718,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBB82EC-3F9A-46C6-90BD-54B0F479E854}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="22" width="9" customWidth="1"/>
+    <col min="23" max="16384" width="9" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
@@ -4805,6 +5747,50 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
+    <row r="30" x14ac:dyDescent="0.4"/>
+    <row r="31" x14ac:dyDescent="0.4"/>
+    <row r="32" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
+    <row r="36" x14ac:dyDescent="0.4"/>
+    <row r="37" x14ac:dyDescent="0.4"/>
+    <row r="38" x14ac:dyDescent="0.4"/>
+    <row r="39" x14ac:dyDescent="0.4"/>
+    <row r="40" x14ac:dyDescent="0.4"/>
+    <row r="41" x14ac:dyDescent="0.4"/>
+    <row r="42" x14ac:dyDescent="0.4"/>
+    <row r="43" x14ac:dyDescent="0.4"/>
+    <row r="44" x14ac:dyDescent="0.4"/>
+    <row r="45" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -4817,13 +5803,17 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F56FAFC-3DE1-4AFD-BAF8-709CE9CBEAA2}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="22" width="9" customWidth="1"/>
+    <col min="23" max="16384" width="9" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
@@ -4846,6 +5836,32 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
@@ -4858,13 +5874,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D43F7A-7723-4517-9681-031104C329AF}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="23" width="9" customWidth="1"/>
+    <col min="24" max="16384" width="9" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
@@ -4892,6 +5912,28 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:V1"/>
@@ -4906,17 +5948,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BFA91-78FF-48FF-9402-D2F936B6192D}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
@@ -5214,17 +6257,50 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AE9615-A06D-446E-93B0-9E0B559E3E99}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="20" width="9" customWidth="1"/>
+    <col min="21" max="16384" width="9" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.4"/>
+    <row r="2" x14ac:dyDescent="0.4"/>
+    <row r="3" x14ac:dyDescent="0.4"/>
+    <row r="4" x14ac:dyDescent="0.4"/>
+    <row r="5" x14ac:dyDescent="0.4"/>
+    <row r="6" x14ac:dyDescent="0.4"/>
+    <row r="7" x14ac:dyDescent="0.4"/>
+    <row r="8" x14ac:dyDescent="0.4"/>
+    <row r="9" x14ac:dyDescent="0.4"/>
+    <row r="10" x14ac:dyDescent="0.4"/>
+    <row r="11" x14ac:dyDescent="0.4"/>
+    <row r="12" x14ac:dyDescent="0.4"/>
+    <row r="13" x14ac:dyDescent="0.4"/>
+    <row r="14" x14ac:dyDescent="0.4"/>
+    <row r="15" x14ac:dyDescent="0.4"/>
+    <row r="16" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5232,14 +6308,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0815496-4F9B-47FE-B548-8030A1C1A6F3}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.875" customWidth="1"/>
+    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -5407,14 +6484,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B0CBB8-656D-479C-9631-9229A80AD390}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" x14ac:dyDescent="0.4"/>
+    <row r="2" x14ac:dyDescent="0.4"/>
+    <row r="3" x14ac:dyDescent="0.4"/>
+    <row r="4" x14ac:dyDescent="0.4"/>
+    <row r="5" x14ac:dyDescent="0.4"/>
+    <row r="6" x14ac:dyDescent="0.4"/>
+    <row r="7" x14ac:dyDescent="0.4"/>
+    <row r="8" x14ac:dyDescent="0.4"/>
+    <row r="9" x14ac:dyDescent="0.4"/>
+    <row r="10" x14ac:dyDescent="0.4"/>
+    <row r="11" x14ac:dyDescent="0.4"/>
+    <row r="12" x14ac:dyDescent="0.4"/>
+    <row r="13" x14ac:dyDescent="0.4"/>
+    <row r="14" x14ac:dyDescent="0.4"/>
+    <row r="15" x14ac:dyDescent="0.4"/>
+    <row r="16" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5425,13 +6531,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F794757-0297-4E91-9247-4DAC7E6C52FB}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="58.5" x14ac:dyDescent="0.4">
@@ -5888,13 +6996,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381006FE-887D-4829-9FB8-79DE9685E981}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="12" width="9" customWidth="1"/>
+    <col min="13" max="16384" width="9" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
@@ -5905,6 +7017,23 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -5917,13 +7046,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FA6BA6-539B-4C06-B6BD-73EEBB280DBD}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="J81" sqref="A81:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="21" width="9" customWidth="1"/>
+    <col min="22" max="16384" width="9" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
@@ -5938,6 +7071,85 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
+    <row r="30" x14ac:dyDescent="0.4"/>
+    <row r="31" x14ac:dyDescent="0.4"/>
+    <row r="32" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
+    <row r="36" x14ac:dyDescent="0.4"/>
+    <row r="37" x14ac:dyDescent="0.4"/>
+    <row r="38" x14ac:dyDescent="0.4"/>
+    <row r="39" x14ac:dyDescent="0.4"/>
+    <row r="40" x14ac:dyDescent="0.4"/>
+    <row r="41" x14ac:dyDescent="0.4"/>
+    <row r="42" x14ac:dyDescent="0.4"/>
+    <row r="43" x14ac:dyDescent="0.4"/>
+    <row r="44" x14ac:dyDescent="0.4"/>
+    <row r="45" x14ac:dyDescent="0.4"/>
+    <row r="46" x14ac:dyDescent="0.4"/>
+    <row r="47" x14ac:dyDescent="0.4"/>
+    <row r="48" x14ac:dyDescent="0.4"/>
+    <row r="49" x14ac:dyDescent="0.4"/>
+    <row r="50" x14ac:dyDescent="0.4"/>
+    <row r="51" x14ac:dyDescent="0.4"/>
+    <row r="52" x14ac:dyDescent="0.4"/>
+    <row r="53" x14ac:dyDescent="0.4"/>
+    <row r="54" x14ac:dyDescent="0.4"/>
+    <row r="55" x14ac:dyDescent="0.4"/>
+    <row r="56" x14ac:dyDescent="0.4"/>
+    <row r="57" x14ac:dyDescent="0.4"/>
+    <row r="58" x14ac:dyDescent="0.4"/>
+    <row r="59" x14ac:dyDescent="0.4"/>
+    <row r="60" x14ac:dyDescent="0.4"/>
+    <row r="61" x14ac:dyDescent="0.4"/>
+    <row r="62" x14ac:dyDescent="0.4"/>
+    <row r="63" x14ac:dyDescent="0.4"/>
+    <row r="64" x14ac:dyDescent="0.4"/>
+    <row r="65" x14ac:dyDescent="0.4"/>
+    <row r="66" x14ac:dyDescent="0.4"/>
+    <row r="67" x14ac:dyDescent="0.4"/>
+    <row r="68" x14ac:dyDescent="0.4"/>
+    <row r="69" x14ac:dyDescent="0.4"/>
+    <row r="70" x14ac:dyDescent="0.4"/>
+    <row r="71" x14ac:dyDescent="0.4"/>
+    <row r="72" x14ac:dyDescent="0.4"/>
+    <row r="73" x14ac:dyDescent="0.4"/>
+    <row r="74" x14ac:dyDescent="0.4"/>
+    <row r="75" x14ac:dyDescent="0.4"/>
+    <row r="76" x14ac:dyDescent="0.4"/>
+    <row r="77" x14ac:dyDescent="0.4"/>
+    <row r="78" x14ac:dyDescent="0.4"/>
+    <row r="79" x14ac:dyDescent="0.4"/>
+    <row r="80" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -5950,13 +7162,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13FEEC5-9E86-4F12-B0CA-1CE96F52012E}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="24" width="9" customWidth="1"/>
+    <col min="25" max="16384" width="9" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
@@ -5971,6 +7187,115 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
+    <row r="30" x14ac:dyDescent="0.4"/>
+    <row r="31" x14ac:dyDescent="0.4"/>
+    <row r="32" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
+    <row r="36" x14ac:dyDescent="0.4"/>
+    <row r="37" x14ac:dyDescent="0.4"/>
+    <row r="38" x14ac:dyDescent="0.4"/>
+    <row r="39" x14ac:dyDescent="0.4"/>
+    <row r="40" x14ac:dyDescent="0.4"/>
+    <row r="41" x14ac:dyDescent="0.4"/>
+    <row r="42" x14ac:dyDescent="0.4"/>
+    <row r="43" x14ac:dyDescent="0.4"/>
+    <row r="44" x14ac:dyDescent="0.4"/>
+    <row r="45" x14ac:dyDescent="0.4"/>
+    <row r="46" x14ac:dyDescent="0.4"/>
+    <row r="47" x14ac:dyDescent="0.4"/>
+    <row r="48" x14ac:dyDescent="0.4"/>
+    <row r="49" x14ac:dyDescent="0.4"/>
+    <row r="50" x14ac:dyDescent="0.4"/>
+    <row r="51" x14ac:dyDescent="0.4"/>
+    <row r="52" x14ac:dyDescent="0.4"/>
+    <row r="53" x14ac:dyDescent="0.4"/>
+    <row r="54" x14ac:dyDescent="0.4"/>
+    <row r="55" x14ac:dyDescent="0.4"/>
+    <row r="56" x14ac:dyDescent="0.4"/>
+    <row r="57" x14ac:dyDescent="0.4"/>
+    <row r="58" x14ac:dyDescent="0.4"/>
+    <row r="59" x14ac:dyDescent="0.4"/>
+    <row r="60" x14ac:dyDescent="0.4"/>
+    <row r="61" x14ac:dyDescent="0.4"/>
+    <row r="62" x14ac:dyDescent="0.4"/>
+    <row r="63" x14ac:dyDescent="0.4"/>
+    <row r="64" x14ac:dyDescent="0.4"/>
+    <row r="65" x14ac:dyDescent="0.4"/>
+    <row r="66" x14ac:dyDescent="0.4"/>
+    <row r="67" x14ac:dyDescent="0.4"/>
+    <row r="68" x14ac:dyDescent="0.4"/>
+    <row r="69" x14ac:dyDescent="0.4"/>
+    <row r="70" x14ac:dyDescent="0.4"/>
+    <row r="71" x14ac:dyDescent="0.4"/>
+    <row r="72" x14ac:dyDescent="0.4"/>
+    <row r="73" x14ac:dyDescent="0.4"/>
+    <row r="74" x14ac:dyDescent="0.4"/>
+    <row r="75" x14ac:dyDescent="0.4"/>
+    <row r="76" x14ac:dyDescent="0.4"/>
+    <row r="77" x14ac:dyDescent="0.4"/>
+    <row r="78" x14ac:dyDescent="0.4"/>
+    <row r="79" x14ac:dyDescent="0.4"/>
+    <row r="80" x14ac:dyDescent="0.4"/>
+    <row r="81" x14ac:dyDescent="0.4"/>
+    <row r="82" x14ac:dyDescent="0.4"/>
+    <row r="83" x14ac:dyDescent="0.4"/>
+    <row r="84" x14ac:dyDescent="0.4"/>
+    <row r="85" x14ac:dyDescent="0.4"/>
+    <row r="86" x14ac:dyDescent="0.4"/>
+    <row r="87" x14ac:dyDescent="0.4"/>
+    <row r="88" x14ac:dyDescent="0.4"/>
+    <row r="89" x14ac:dyDescent="0.4"/>
+    <row r="90" x14ac:dyDescent="0.4"/>
+    <row r="91" x14ac:dyDescent="0.4"/>
+    <row r="92" x14ac:dyDescent="0.4"/>
+    <row r="93" x14ac:dyDescent="0.4"/>
+    <row r="94" x14ac:dyDescent="0.4"/>
+    <row r="95" x14ac:dyDescent="0.4"/>
+    <row r="96" x14ac:dyDescent="0.4"/>
+    <row r="97" x14ac:dyDescent="0.4"/>
+    <row r="98" x14ac:dyDescent="0.4"/>
+    <row r="99" x14ac:dyDescent="0.4"/>
+    <row r="100" x14ac:dyDescent="0.4"/>
+    <row r="101" x14ac:dyDescent="0.4"/>
+    <row r="102" x14ac:dyDescent="0.4"/>
+    <row r="103" x14ac:dyDescent="0.4"/>
+    <row r="104" x14ac:dyDescent="0.4"/>
+    <row r="105" x14ac:dyDescent="0.4"/>
+    <row r="106" x14ac:dyDescent="0.4"/>
+    <row r="107" x14ac:dyDescent="0.4"/>
+    <row r="108" x14ac:dyDescent="0.4"/>
+    <row r="109" x14ac:dyDescent="0.4"/>
+    <row r="110" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -5983,13 +7308,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398E4518-2E79-41CF-B10B-F6C0FBA3070F}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="12" width="9" customWidth="1"/>
+    <col min="13" max="16384" width="9" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
@@ -6000,6 +7329,23 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -6012,13 +7358,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAE60C7-C979-4A0C-9980-31C5E12827E1}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="23" width="9" customWidth="1"/>
+    <col min="24" max="16384" width="9" hidden="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
@@ -6033,6 +7383,95 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
+    <row r="30" x14ac:dyDescent="0.4"/>
+    <row r="31" x14ac:dyDescent="0.4"/>
+    <row r="32" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
+    <row r="36" x14ac:dyDescent="0.4"/>
+    <row r="37" x14ac:dyDescent="0.4"/>
+    <row r="38" x14ac:dyDescent="0.4"/>
+    <row r="39" x14ac:dyDescent="0.4"/>
+    <row r="40" x14ac:dyDescent="0.4"/>
+    <row r="41" x14ac:dyDescent="0.4"/>
+    <row r="42" x14ac:dyDescent="0.4"/>
+    <row r="43" x14ac:dyDescent="0.4"/>
+    <row r="44" x14ac:dyDescent="0.4"/>
+    <row r="45" x14ac:dyDescent="0.4"/>
+    <row r="46" x14ac:dyDescent="0.4"/>
+    <row r="47" x14ac:dyDescent="0.4"/>
+    <row r="48" x14ac:dyDescent="0.4"/>
+    <row r="49" x14ac:dyDescent="0.4"/>
+    <row r="50" x14ac:dyDescent="0.4"/>
+    <row r="51" x14ac:dyDescent="0.4"/>
+    <row r="52" x14ac:dyDescent="0.4"/>
+    <row r="53" x14ac:dyDescent="0.4"/>
+    <row r="54" x14ac:dyDescent="0.4"/>
+    <row r="55" x14ac:dyDescent="0.4"/>
+    <row r="56" x14ac:dyDescent="0.4"/>
+    <row r="57" x14ac:dyDescent="0.4"/>
+    <row r="58" x14ac:dyDescent="0.4"/>
+    <row r="59" x14ac:dyDescent="0.4"/>
+    <row r="60" x14ac:dyDescent="0.4"/>
+    <row r="61" x14ac:dyDescent="0.4"/>
+    <row r="62" x14ac:dyDescent="0.4"/>
+    <row r="63" x14ac:dyDescent="0.4"/>
+    <row r="64" x14ac:dyDescent="0.4"/>
+    <row r="65" x14ac:dyDescent="0.4"/>
+    <row r="66" x14ac:dyDescent="0.4"/>
+    <row r="67" x14ac:dyDescent="0.4"/>
+    <row r="68" x14ac:dyDescent="0.4"/>
+    <row r="69" x14ac:dyDescent="0.4"/>
+    <row r="70" x14ac:dyDescent="0.4"/>
+    <row r="71" x14ac:dyDescent="0.4"/>
+    <row r="72" x14ac:dyDescent="0.4"/>
+    <row r="73" x14ac:dyDescent="0.4"/>
+    <row r="74" x14ac:dyDescent="0.4"/>
+    <row r="75" x14ac:dyDescent="0.4"/>
+    <row r="76" x14ac:dyDescent="0.4"/>
+    <row r="77" x14ac:dyDescent="0.4"/>
+    <row r="78" x14ac:dyDescent="0.4"/>
+    <row r="79" x14ac:dyDescent="0.4"/>
+    <row r="80" x14ac:dyDescent="0.4"/>
+    <row r="81" x14ac:dyDescent="0.4"/>
+    <row r="82" x14ac:dyDescent="0.4"/>
+    <row r="83" x14ac:dyDescent="0.4"/>
+    <row r="84" x14ac:dyDescent="0.4"/>
+    <row r="85" x14ac:dyDescent="0.4"/>
+    <row r="86" x14ac:dyDescent="0.4"/>
+    <row r="87" x14ac:dyDescent="0.4"/>
+    <row r="88" x14ac:dyDescent="0.4"/>
+    <row r="89" x14ac:dyDescent="0.4"/>
+    <row r="90" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
+++ b/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamat\Git\lantana\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF481ED0-C5DD-450F-91F6-42673DCF6290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE0740B-8F17-44D9-9706-AC2E60C2F18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="15" xr2:uid="{61CBB803-3BDB-4855-8C1F-1E0881913DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="898" xr2:uid="{61CBB803-3BDB-4855-8C1F-1E0881913DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="lantana" sheetId="4" r:id="rId1"/>
     <sheet name="index" sheetId="19" r:id="rId2"/>
     <sheet name="開発環境" sheetId="2" r:id="rId3"/>
-    <sheet name="開発TODO" sheetId="1" r:id="rId4"/>
-    <sheet name="論理ER図" sheetId="9" r:id="rId5"/>
-    <sheet name="サーバサイド論理クラス図" sheetId="11" r:id="rId6"/>
-    <sheet name="画面論理クラス図" sheetId="13" r:id="rId7"/>
-    <sheet name="物理ER図" sheetId="10" r:id="rId8"/>
-    <sheet name="サーバサイド物理クラス図" sheetId="12" r:id="rId9"/>
-    <sheet name="画面物理クラス図1" sheetId="14" r:id="rId10"/>
-    <sheet name="画面物理クラス図2" sheetId="20" r:id="rId11"/>
-    <sheet name="シーケンス図1" sheetId="21" r:id="rId12"/>
-    <sheet name="シーケンス図2" sheetId="22" r:id="rId13"/>
-    <sheet name="シーケンス図3" sheetId="23" r:id="rId14"/>
-    <sheet name="APIアドレス一覧" sheetId="8" r:id="rId15"/>
-    <sheet name="所感・著者紹介・リンク" sheetId="6" r:id="rId16"/>
+    <sheet name="論理ER図" sheetId="9" r:id="rId4"/>
+    <sheet name="サーバサイド概要クラス図" sheetId="24" r:id="rId5"/>
+    <sheet name="画面概要クラス図1" sheetId="25" r:id="rId6"/>
+    <sheet name="画面概要クラス図2" sheetId="26" r:id="rId7"/>
+    <sheet name="サーバサイド論理クラス図" sheetId="11" r:id="rId8"/>
+    <sheet name="画面論理クラス図" sheetId="13" r:id="rId9"/>
+    <sheet name="物理ER図" sheetId="10" r:id="rId10"/>
+    <sheet name="サーバサイド物理クラス図" sheetId="12" r:id="rId11"/>
+    <sheet name="画面物理クラス図1" sheetId="14" r:id="rId12"/>
+    <sheet name="画面物理クラス図2" sheetId="20" r:id="rId13"/>
+    <sheet name="シーケンス図1" sheetId="21" r:id="rId14"/>
+    <sheet name="シーケンス図2" sheetId="22" r:id="rId15"/>
+    <sheet name="シーケンス図3" sheetId="23" r:id="rId16"/>
+    <sheet name="APIアドレス一覧" sheetId="8" r:id="rId17"/>
+    <sheet name="所感・著者紹介・リンク" sheetId="6" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,178 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="117">
-  <si>
-    <t>ワイヤーフレーム作成（下書き・手書き）</t>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モックアップ作成（Vue.js・スクリーンショット・Excel）</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開発環境決定</t>
-    <rPh sb="0" eb="4">
-      <t>カイハツカンキョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面遷移図作成（スクリーンショット・Excel）</t>
-    <rPh sb="0" eb="5">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>論理・物理ER図作成（Astah）</t>
-    <rPh sb="0" eb="2">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>論理・物理ER図Excel貼付け（Excel）</t>
-    <rPh sb="0" eb="2">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>論理・物理サーバサイドクラス図作成（Astah）</t>
-    <rPh sb="0" eb="2">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>論理・物理画面クラス図作成（Astah）</t>
-    <rPh sb="0" eb="2">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サーバAPIアドレス一覧作成（Excel）</t>
-    <rPh sb="10" eb="12">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーケンス図作成（Astah）（今回の開発でいらなくね？）</t>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リンク一覧作成（Excel）</t>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所感記述（Excel）</t>
-    <rPh sb="0" eb="2">
-      <t>ショカン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>著者紹介記述（Excel）</t>
-    <rPh sb="0" eb="4">
-      <t>チョシャショウカイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
   <si>
     <t>用途</t>
     <rPh sb="0" eb="2">
@@ -440,13 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>開発TODO</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>論理ER図</t>
     <rPh sb="0" eb="2">
       <t>ロンリ</t>
@@ -711,10 +535,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>やることリスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>論理データベース設計。説明用</t>
     <rPh sb="0" eb="2">
       <t>ロンリ</t>
@@ -929,6 +749,124 @@
   </si>
   <si>
     <t>シーケンス図3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面概要クラス図</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイド概要クラス図</t>
+    <rPh sb="6" eb="8">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面概要クラス図2</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面概要クラス図1</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバサイド重要クラス名一覧。説明用</t>
+    <rPh sb="6" eb="8">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面重要クラス名一覧。説明用</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面重要クラス名一覧。画面重要コンポーネント。説明用</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -995,11 +933,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
@@ -1024,70 +959,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1184,7 +1055,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>ライフログビューアアプリケーションに気分による検索機能が存在せず、ほしいから作る</a:t>
+            <a:t>ライフログビューアアプリケーションに気分による検索機能が存在せず、ほしい</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -1327,7 +1198,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>で設計書を書</a:t>
+            <a:t>で設計書を</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -1339,7 +1210,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>き、</a:t>
+            <a:t>作成し、</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
@@ -1351,7 +1222,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>画面設計図に力を入れる。</a:t>
+            <a:t>画面設計図</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>とアプリケーション全体像の共有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に力を入れる。</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1445,7 +1340,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　　この開発のゴールは実装完了報告動画の完成とする。</a:t>
+            <a:t>　　この開発のゴールは実装完了報告</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>完了、かつ完了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>動画の完成とする。</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -1813,7 +1732,7 @@
         <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1CC9EA-2B55-0337-042E-1B769F398902}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1782,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F951F5-0895-7197-8AE1-733AAA8B8F7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,6 +1892,116 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>472506</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="742950"/>
+          <a:ext cx="15560106" cy="21174076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>742949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>11850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="742949"/>
+          <a:ext cx="14935200" cy="16680601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2027,7 +2056,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2082,7 +2111,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2137,7 +2166,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2192,19 +2221,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2220,8 +2249,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="19050"/>
-          <a:ext cx="7296150" cy="6372225"/>
+          <a:off x="9525" y="19048"/>
+          <a:ext cx="7296150" cy="6848477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2299,15 +2328,19 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>今回の開発はまぁまぁな楽しさでした。評価するならば</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2316,8 +2349,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>★★★☆☆</a:t>
-          </a:r>
+            <a:t>設計</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2328,121 +2372,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ぐらいです。前回の開発に比べて難易度が低かったからだと思います。コンポーネントも使い回すことができて爆速で開発できたものの、その分達成感を得られませんでした。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>設計について</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>モデルは私史上最も美しいものになったと思います。が、相変わらず要素が多いので、見た人は引いてしまうかもしれないと思っています。改善案が思い付けばいいのですが・・・思いつかないです。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>設計と実装</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>今回は設計と実装の行き来に制約をかけずに開発しました。ゆるゆるのウォーターフォール開発です。出戻り回数は</a:t>
+            <a:t>今回は設計と実装の行き来に制約をかけずに開発しました。ゆるゆるのウォーターフォール開発です。手戻り回数は</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -2491,6 +2421,174 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>今回の実装はまぁまぁな楽しさでした。評価するならば★★★☆☆ぐらいです。前回の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に比べて難易度が低かったからだと思います。コンポーネントも使い回すことができて爆速で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>実装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>できたものの、その分達成感を得られませんでした。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最近は実装よりも設計のほうが楽しく感じます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ドキュメント作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「情報を網羅的に載せればいい」と思っていた時代が私にもありました。ですが、実は情報網羅はただの前提で、重要な情報をピックアップする力が必要であることに気づきました。「ただ情報を垂れ流されても困る」。私も人生上で何度も感じましたが、情報共有をする側の立場になって初めて気づきます。情報共有難しすぎ・・・。私は頭の回転は遅い方なので、入念に準備することで今後の人生をなんとかやっていこうと思います。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -2584,19 +2682,9 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>以上です。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>次のライフログアプリケーション案があるので、</a:t>
+            <a:t>ちなみに、</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -2604,14 +2692,65 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>開発が落ち着き次第開発に取り掛かろうと思います。</a:t>
+            <a:t>は使われています。「★</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>☆☆☆☆</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>つかれた</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」みたいなしょうもない使い方ですが、作ってよかったです。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>（</a:t>
+            <a:t>以上です。次のライフログアプリケーション案があるので、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Lantana</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開発が落ち着き次第開発に取り掛かろうと思います。（</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -2630,15 +2769,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2653,8 +2792,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7372350" y="19050"/>
-          <a:ext cx="6124575" cy="4391025"/>
+          <a:off x="7381875" y="1885950"/>
+          <a:ext cx="6124575" cy="2990849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2692,9 +2831,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200"/>
             <a:t>著者紹介</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200"/>
-        </a:p>
-        <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
@@ -2742,83 +2878,37 @@
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>最近</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>UML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>をかくことにハマっている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7562850" y="619125"/>
-          <a:ext cx="1685925" cy="1685925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2833,8 +2923,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7381875" y="4448176"/>
-          <a:ext cx="6115050" cy="1943099"/>
+          <a:off x="7400925" y="4895851"/>
+          <a:ext cx="6115050" cy="1962149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2992,20 +3082,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
@@ -3016,7 +3106,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9553575" y="5324475"/>
+          <a:off x="9582150" y="5800725"/>
           <a:ext cx="3143250" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3074,20 +3164,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
@@ -3098,8 +3188,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9553575" y="5562600"/>
-          <a:ext cx="4152900" cy="285750"/>
+          <a:off x="9582150" y="6038850"/>
+          <a:ext cx="3790950" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3177,23 +3267,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E24F7080-2AAD-9574-83AB-C84DF8F24669}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,7 +3291,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9553575" y="5800725"/>
+          <a:off x="9582150" y="6276975"/>
           <a:ext cx="3838575" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3255,23 +3345,23 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30322B7B-5F9C-948F-A918-2B4F5A67DCED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3279,8 +3369,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9553575" y="6029325"/>
-          <a:ext cx="3933825" cy="200025"/>
+          <a:off x="9582150" y="6486525"/>
+          <a:ext cx="3876675" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3324,6 +3414,243 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAA3840-44FD-BD4C-2A46-4BD0F6CEFBB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="2476500"/>
+          <a:ext cx="1685925" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2D5104-5C0D-F87E-0624-355B4665DCB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7381875" y="0"/>
+          <a:ext cx="6124575" cy="1857374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>制作期間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2023-05-19 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>考案。設計・実装・ドキュメント作成開始</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2023-05-31 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>設計・実装・ドキュメント作成完了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>計</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3699,1083 +4026,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="Check Box 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2051"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2054" name="Check Box 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2054"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2055" name="Check Box 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2055"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2056" name="Check Box 8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2056"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2057" name="Check Box 9" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2057"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2058" name="Check Box 10" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2058"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2059" name="Check Box 11" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2059"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2060" name="Check Box 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2060"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2061" name="Check Box 13" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2061"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2062" name="Check Box 14" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2062"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>11</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2063" name="Check Box 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2063"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2064" name="Check Box 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2064"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2065" name="Check Box 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2065"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2066" name="Check Box 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2066"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2097" name="Check Box 49" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2097"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2098" name="Check Box 50" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2098"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032080000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4829,7 +4079,172 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>633978</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1BA791-08A7-1D7A-690C-9A67CCBE0478}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="742950"/>
+          <a:ext cx="11606778" cy="6162675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>742949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>658756</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD82D37-1558-BA58-59D1-979DC2B326EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="742949"/>
+          <a:ext cx="10945756" cy="5934075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>665668</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F04F8EE5-CCC5-A5ED-EE92-2C5DC2FBBBEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="742950"/>
+          <a:ext cx="11638468" cy="9734550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4884,7 +4299,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4939,7 +4354,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4994,119 +4409,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>472506</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="742950"/>
-          <a:ext cx="15560106" cy="21174076"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>742949</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>11850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="742949"/>
-          <a:ext cx="14935200" cy="16680601"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}" name="テーブル4" displayName="テーブル4" ref="A1:B17" totalsRowShown="0">
-  <autoFilter ref="A1:B17" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}" name="テーブル4" displayName="テーブル4" ref="A1:B19" totalsRowShown="0">
+  <autoFilter ref="A1:B19" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{33667A2D-9E2F-41FD-B9F1-4BC5072C6F97}" name="シートタイトル" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="2" xr3:uid="{39EBC6E4-FB9B-4F13-9E52-EA59DEF3B409}" name="説明"/>
@@ -5116,17 +4421,6 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C3C71EA0-5C86-44B7-8116-965348D2A589}" name="テーブル3" displayName="テーブル3" ref="A2:B15" totalsRowShown="0">
-  <autoFilter ref="A2:B15" xr:uid="{C3C71EA0-5C86-44B7-8116-965348D2A589}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{909A90CE-906B-4DCD-A912-0256E8AC00B4}" name="チェック"/>
-    <tableColumn id="3" xr3:uid="{34F5ACD9-9875-4002-A600-E1C0684E67DB}" name="タイトル"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{73E37F51-C22A-4B87-9779-C1B83EA1BB99}" name="テーブル2" displayName="テーブル2" ref="A2:E17" totalsRowShown="0">
   <autoFilter ref="A2:E17" xr:uid="{73E37F51-C22A-4B87-9779-C1B83EA1BB99}"/>
   <tableColumns count="5">
@@ -5437,10 +4731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD35750-36B7-4643-B2FF-83256F861E84}">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="L49" sqref="A49:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5505,8 +4799,184 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398E4518-2E79-41CF-B10B-F6C0FBA3070F}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="12" width="9" customWidth="1"/>
+    <col min="13" max="16384" width="9" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAE60C7-C979-4A0C-9980-31C5E12827E1}">
+  <dimension ref="A1:W90"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="23" width="9" customWidth="1"/>
+    <col min="24" max="16384" width="9" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
+    <row r="30" x14ac:dyDescent="0.4"/>
+    <row r="31" x14ac:dyDescent="0.4"/>
+    <row r="32" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
+    <row r="36" x14ac:dyDescent="0.4"/>
+    <row r="37" x14ac:dyDescent="0.4"/>
+    <row r="38" x14ac:dyDescent="0.4"/>
+    <row r="39" x14ac:dyDescent="0.4"/>
+    <row r="40" x14ac:dyDescent="0.4"/>
+    <row r="41" x14ac:dyDescent="0.4"/>
+    <row r="42" x14ac:dyDescent="0.4"/>
+    <row r="43" x14ac:dyDescent="0.4"/>
+    <row r="44" x14ac:dyDescent="0.4"/>
+    <row r="45" x14ac:dyDescent="0.4"/>
+    <row r="46" x14ac:dyDescent="0.4"/>
+    <row r="47" x14ac:dyDescent="0.4"/>
+    <row r="48" x14ac:dyDescent="0.4"/>
+    <row r="49" x14ac:dyDescent="0.4"/>
+    <row r="50" x14ac:dyDescent="0.4"/>
+    <row r="51" x14ac:dyDescent="0.4"/>
+    <row r="52" x14ac:dyDescent="0.4"/>
+    <row r="53" x14ac:dyDescent="0.4"/>
+    <row r="54" x14ac:dyDescent="0.4"/>
+    <row r="55" x14ac:dyDescent="0.4"/>
+    <row r="56" x14ac:dyDescent="0.4"/>
+    <row r="57" x14ac:dyDescent="0.4"/>
+    <row r="58" x14ac:dyDescent="0.4"/>
+    <row r="59" x14ac:dyDescent="0.4"/>
+    <row r="60" x14ac:dyDescent="0.4"/>
+    <row r="61" x14ac:dyDescent="0.4"/>
+    <row r="62" x14ac:dyDescent="0.4"/>
+    <row r="63" x14ac:dyDescent="0.4"/>
+    <row r="64" x14ac:dyDescent="0.4"/>
+    <row r="65" x14ac:dyDescent="0.4"/>
+    <row r="66" x14ac:dyDescent="0.4"/>
+    <row r="67" x14ac:dyDescent="0.4"/>
+    <row r="68" x14ac:dyDescent="0.4"/>
+    <row r="69" x14ac:dyDescent="0.4"/>
+    <row r="70" x14ac:dyDescent="0.4"/>
+    <row r="71" x14ac:dyDescent="0.4"/>
+    <row r="72" x14ac:dyDescent="0.4"/>
+    <row r="73" x14ac:dyDescent="0.4"/>
+    <row r="74" x14ac:dyDescent="0.4"/>
+    <row r="75" x14ac:dyDescent="0.4"/>
+    <row r="76" x14ac:dyDescent="0.4"/>
+    <row r="77" x14ac:dyDescent="0.4"/>
+    <row r="78" x14ac:dyDescent="0.4"/>
+    <row r="79" x14ac:dyDescent="0.4"/>
+    <row r="80" x14ac:dyDescent="0.4"/>
+    <row r="81" x14ac:dyDescent="0.4"/>
+    <row r="82" x14ac:dyDescent="0.4"/>
+    <row r="83" x14ac:dyDescent="0.4"/>
+    <row r="84" x14ac:dyDescent="0.4"/>
+    <row r="85" x14ac:dyDescent="0.4"/>
+    <row r="86" x14ac:dyDescent="0.4"/>
+    <row r="87" x14ac:dyDescent="0.4"/>
+    <row r="88" x14ac:dyDescent="0.4"/>
+    <row r="89" x14ac:dyDescent="0.4"/>
+    <row r="90" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AE22D9-FCFF-4E03-9FEF-BFCF54C997B6}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="A73" sqref="A73:XFD1048576"/>
@@ -5519,17 +4989,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
@@ -5612,12 +5082,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15B52CA-70C6-4A34-A8C3-25B7C4F02852}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD1048576"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5627,17 +5097,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
@@ -5716,9 +5186,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBB82EC-3F9A-46C6-90BD-54B0F479E854}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="A46" sqref="A46:XFD1048576"/>
@@ -5731,21 +5201,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4"/>
@@ -5801,9 +5271,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F56FAFC-3DE1-4AFD-BAF8-709CE9CBEAA2}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD1048576"/>
@@ -5816,25 +5286,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4"/>
@@ -5872,9 +5342,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D43F7A-7723-4517-9681-031104C329AF}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:XFD1048576"/>
@@ -5887,30 +5357,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4"/>
@@ -5944,7 +5414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BFA91-78FF-48FF-9402-D2F936B6192D}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -5963,284 +5433,284 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -6255,12 +5725,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AE9615-A06D-446E-93B0-9E0B559E3E99}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD1048576"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6296,6 +5766,8 @@
     <row r="25" x14ac:dyDescent="0.4"/>
     <row r="26" x14ac:dyDescent="0.4"/>
     <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6306,10 +5778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0815496-4F9B-47FE-B548-8030A1C1A6F3}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6321,138 +5793,154 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>90</v>
+      <c r="A2" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>91</v>
+      <c r="A3" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>92</v>
+      <c r="A4" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>51</v>
+      <c r="A5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>52</v>
+      <c r="A6" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
+      <c r="A7" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>56</v>
+      <c r="A8" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>53</v>
+      <c r="A9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>55</v>
+      <c r="A10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>108</v>
+      <c r="A11" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>109</v>
+      <c r="A12" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>107</v>
+      <c r="A13" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>115</v>
+      <c r="A14" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>116</v>
+      <c r="A15" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>45</v>
+      <c r="A16" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>93</v>
+      <c r="A17" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6461,19 +5949,21 @@
     <hyperlink ref="A2" location="lantana!A1" display="lantana" xr:uid="{92307938-0266-4B0E-AF91-0534A4026E26}"/>
     <hyperlink ref="A3" location="index!A1" display="index" xr:uid="{281F3D6B-E22E-4E9F-950F-D1E0EA853A13}"/>
     <hyperlink ref="A4" location="開発環境!A1" display="開発環境" xr:uid="{FCA410DD-082A-4487-A1B7-21A757FB6989}"/>
-    <hyperlink ref="A5" location="開発TODO!A1" display="開発TODO" xr:uid="{5E801312-E14E-45B4-82E2-441D292F7F29}"/>
-    <hyperlink ref="A6" location="論理ER図!A1" display="論理ER図" xr:uid="{07298365-D7D0-472C-9F6D-DB04D72ABAB7}"/>
-    <hyperlink ref="A7" location="サーバサイド論理クラス図!A1" display="サーバサイド論理クラス図" xr:uid="{ECF172B3-87BD-4FE9-A6D0-735E82D72D82}"/>
-    <hyperlink ref="A8" location="画面論理クラス図!A1" display="画面論理クラス図" xr:uid="{168C7B26-CD79-4A01-B2A2-B7FA89B20659}"/>
-    <hyperlink ref="A9" location="物理ER図!A1" display="物理ER図" xr:uid="{6A6BC364-9BFC-4C20-ACBF-5AB75791C5AA}"/>
-    <hyperlink ref="A10" location="サーバサイド物理クラス図!A1" display="サーバサイド物理クラス図" xr:uid="{551EF2B3-882A-426B-95F2-9847AC541811}"/>
-    <hyperlink ref="A12" location="画面物理クラス図2!A1" display="画面物理クラス図2" xr:uid="{2E5BC1F6-E873-4A82-BE6A-6076AF49A23E}"/>
-    <hyperlink ref="A16" location="APIアドレス一覧!A1" display="APIアドレス一覧" xr:uid="{B138C97E-0D9D-4D83-A558-EC1A83C588FC}"/>
-    <hyperlink ref="A17" location="所感・著者紹介・リンク!A1" display="所感・著者紹介・リンク" xr:uid="{6AED2529-7FFE-4A35-B707-23D2D9B3A201}"/>
-    <hyperlink ref="A11" location="画面物理クラス図1!A1" display="画面物理クラス図1" xr:uid="{B7A1A4BC-99F1-417A-A3AE-884FF0373152}"/>
-    <hyperlink ref="A13" location="シーケンス図1!A1" display="シーケンス図1" xr:uid="{2681AEDE-D7B7-4C42-9A86-A69400B50E52}"/>
-    <hyperlink ref="A14" location="シーケンス図2!A1" display="シーケンス図2" xr:uid="{3DD87B47-4A4B-4207-9EBF-E2E551B5398A}"/>
-    <hyperlink ref="A15" location="シーケンス図3!A1" display="シーケンス図3" xr:uid="{61367FE4-C33C-43CF-8455-984A12FD56F0}"/>
+    <hyperlink ref="A5" location="論理ER図!A1" display="論理ER図" xr:uid="{07298365-D7D0-472C-9F6D-DB04D72ABAB7}"/>
+    <hyperlink ref="A9" location="サーバサイド論理クラス図!A1" display="サーバサイド論理クラス図" xr:uid="{ECF172B3-87BD-4FE9-A6D0-735E82D72D82}"/>
+    <hyperlink ref="A10" location="画面論理クラス図!A1" display="画面論理クラス図" xr:uid="{168C7B26-CD79-4A01-B2A2-B7FA89B20659}"/>
+    <hyperlink ref="A11" location="物理ER図!A1" display="物理ER図" xr:uid="{6A6BC364-9BFC-4C20-ACBF-5AB75791C5AA}"/>
+    <hyperlink ref="A12" location="サーバサイド物理クラス図!A1" display="サーバサイド物理クラス図" xr:uid="{551EF2B3-882A-426B-95F2-9847AC541811}"/>
+    <hyperlink ref="A14" location="画面物理クラス図2!A1" display="画面物理クラス図2" xr:uid="{2E5BC1F6-E873-4A82-BE6A-6076AF49A23E}"/>
+    <hyperlink ref="A18" location="APIアドレス一覧!A1" display="APIアドレス一覧" xr:uid="{B138C97E-0D9D-4D83-A558-EC1A83C588FC}"/>
+    <hyperlink ref="A19" location="所感・著者紹介・リンク!A1" display="所感・著者紹介・リンク" xr:uid="{6AED2529-7FFE-4A35-B707-23D2D9B3A201}"/>
+    <hyperlink ref="A13" location="画面物理クラス図1!A1" display="画面物理クラス図1" xr:uid="{B7A1A4BC-99F1-417A-A3AE-884FF0373152}"/>
+    <hyperlink ref="A15" location="シーケンス図1!A1" display="シーケンス図1" xr:uid="{2681AEDE-D7B7-4C42-9A86-A69400B50E52}"/>
+    <hyperlink ref="A16" location="シーケンス図2!A1" display="シーケンス図2" xr:uid="{3DD87B47-4A4B-4207-9EBF-E2E551B5398A}"/>
+    <hyperlink ref="A17" location="シーケンス図3!A1" display="シーケンス図3" xr:uid="{61367FE4-C33C-43CF-8455-984A12FD56F0}"/>
+    <hyperlink ref="A6" location="サーバサイド概要クラス図!A1" display="サーバサイド概要クラス図" xr:uid="{F86E1CD2-C6E0-4441-9600-02215E73CF14}"/>
+    <hyperlink ref="A7" location="画面概要クラス図1!A1" display="画面概要クラス図1" xr:uid="{E29EEB59-C50A-41A5-B932-6546D904DAB1}"/>
+    <hyperlink ref="A8" location="画面概要クラス図2!A1" display="画面概要クラス図2" xr:uid="{39C1DA43-C78D-4892-A904-53F9D3456849}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6484,7 +5974,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B0CBB8-656D-479C-9631-9229A80AD390}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
@@ -6528,475 +6018,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F794757-0297-4E91-9247-4DAC7E6C52FB}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2051" r:id="rId3" name="Check Box 3">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2056" r:id="rId4" name="Check Box 8">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2057" r:id="rId5" name="Check Box 9">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2058" r:id="rId6" name="Check Box 10">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2059" r:id="rId7" name="Check Box 11">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2060" r:id="rId8" name="Check Box 12">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2061" r:id="rId9" name="Check Box 13">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>9</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2062" r:id="rId10" name="Check Box 14">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>10</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2063" r:id="rId11" name="Check Box 15">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2064" r:id="rId12" name="Check Box 16">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>12</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2065" r:id="rId13" name="Check Box 17">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>13</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2066" r:id="rId14" name="Check Box 18">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>15</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2097" r:id="rId15" name="Check Box 49">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2054" r:id="rId16" name="Check Box 6">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2098" r:id="rId17" name="Check Box 50">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2055" r:id="rId18" name="Check Box 7">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <tableParts count="1">
-    <tablePart r:id="rId19"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381006FE-887D-4829-9FB8-79DE9685E981}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:XFD1048576"/>
@@ -7009,13 +6032,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -7044,12 +6067,215 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FA6BA6-539B-4C06-B6BD-73EEBB280DBD}">
-  <dimension ref="A1:I80"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFA88EE-2823-451D-B9A3-F87C290AA65E}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="J81" sqref="A81:XFD1048576"/>
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="17" width="9" customWidth="1"/>
+    <col min="18" max="16384" width="9" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B28758-69B0-426B-98D7-243F04207FD3}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="E27" sqref="A27:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16" width="9" customWidth="1"/>
+    <col min="17" max="16384" width="9" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30676764-2A85-4C84-A6B3-44404CD69804}">
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="F43" sqref="A43:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="17" width="9" customWidth="1"/>
+    <col min="18" max="16384" width="9" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
+    <row r="30" x14ac:dyDescent="0.4"/>
+    <row r="31" x14ac:dyDescent="0.4"/>
+    <row r="32" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
+    <row r="36" x14ac:dyDescent="0.4"/>
+    <row r="37" x14ac:dyDescent="0.4"/>
+    <row r="38" x14ac:dyDescent="0.4"/>
+    <row r="39" x14ac:dyDescent="0.4"/>
+    <row r="40" x14ac:dyDescent="0.4"/>
+    <row r="41" x14ac:dyDescent="0.4"/>
+    <row r="42" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FA6BA6-539B-4C06-B6BD-73EEBB280DBD}">
+  <dimension ref="A1:U80"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -7059,17 +6285,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
@@ -7160,9 +6386,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13FEEC5-9E86-4F12-B0CA-1CE96F52012E}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:X110"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A111" sqref="A111:XFD1048576"/>
@@ -7175,17 +6401,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
@@ -7304,180 +6530,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398E4518-2E79-41CF-B10B-F6C0FBA3070F}">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="12" width="9" customWidth="1"/>
-    <col min="13" max="16384" width="9" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4"/>
-    <row r="17" x14ac:dyDescent="0.4"/>
-    <row r="18" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAE60C7-C979-4A0C-9980-31C5E12827E1}">
-  <dimension ref="A1:I90"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="23" width="9" customWidth="1"/>
-    <col min="24" max="16384" width="9" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="58.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4"/>
-    <row r="17" x14ac:dyDescent="0.4"/>
-    <row r="18" x14ac:dyDescent="0.4"/>
-    <row r="19" x14ac:dyDescent="0.4"/>
-    <row r="20" x14ac:dyDescent="0.4"/>
-    <row r="21" x14ac:dyDescent="0.4"/>
-    <row r="22" x14ac:dyDescent="0.4"/>
-    <row r="23" x14ac:dyDescent="0.4"/>
-    <row r="24" x14ac:dyDescent="0.4"/>
-    <row r="25" x14ac:dyDescent="0.4"/>
-    <row r="26" x14ac:dyDescent="0.4"/>
-    <row r="27" x14ac:dyDescent="0.4"/>
-    <row r="28" x14ac:dyDescent="0.4"/>
-    <row r="29" x14ac:dyDescent="0.4"/>
-    <row r="30" x14ac:dyDescent="0.4"/>
-    <row r="31" x14ac:dyDescent="0.4"/>
-    <row r="32" x14ac:dyDescent="0.4"/>
-    <row r="33" x14ac:dyDescent="0.4"/>
-    <row r="34" x14ac:dyDescent="0.4"/>
-    <row r="35" x14ac:dyDescent="0.4"/>
-    <row r="36" x14ac:dyDescent="0.4"/>
-    <row r="37" x14ac:dyDescent="0.4"/>
-    <row r="38" x14ac:dyDescent="0.4"/>
-    <row r="39" x14ac:dyDescent="0.4"/>
-    <row r="40" x14ac:dyDescent="0.4"/>
-    <row r="41" x14ac:dyDescent="0.4"/>
-    <row r="42" x14ac:dyDescent="0.4"/>
-    <row r="43" x14ac:dyDescent="0.4"/>
-    <row r="44" x14ac:dyDescent="0.4"/>
-    <row r="45" x14ac:dyDescent="0.4"/>
-    <row r="46" x14ac:dyDescent="0.4"/>
-    <row r="47" x14ac:dyDescent="0.4"/>
-    <row r="48" x14ac:dyDescent="0.4"/>
-    <row r="49" x14ac:dyDescent="0.4"/>
-    <row r="50" x14ac:dyDescent="0.4"/>
-    <row r="51" x14ac:dyDescent="0.4"/>
-    <row r="52" x14ac:dyDescent="0.4"/>
-    <row r="53" x14ac:dyDescent="0.4"/>
-    <row r="54" x14ac:dyDescent="0.4"/>
-    <row r="55" x14ac:dyDescent="0.4"/>
-    <row r="56" x14ac:dyDescent="0.4"/>
-    <row r="57" x14ac:dyDescent="0.4"/>
-    <row r="58" x14ac:dyDescent="0.4"/>
-    <row r="59" x14ac:dyDescent="0.4"/>
-    <row r="60" x14ac:dyDescent="0.4"/>
-    <row r="61" x14ac:dyDescent="0.4"/>
-    <row r="62" x14ac:dyDescent="0.4"/>
-    <row r="63" x14ac:dyDescent="0.4"/>
-    <row r="64" x14ac:dyDescent="0.4"/>
-    <row r="65" x14ac:dyDescent="0.4"/>
-    <row r="66" x14ac:dyDescent="0.4"/>
-    <row r="67" x14ac:dyDescent="0.4"/>
-    <row r="68" x14ac:dyDescent="0.4"/>
-    <row r="69" x14ac:dyDescent="0.4"/>
-    <row r="70" x14ac:dyDescent="0.4"/>
-    <row r="71" x14ac:dyDescent="0.4"/>
-    <row r="72" x14ac:dyDescent="0.4"/>
-    <row r="73" x14ac:dyDescent="0.4"/>
-    <row r="74" x14ac:dyDescent="0.4"/>
-    <row r="75" x14ac:dyDescent="0.4"/>
-    <row r="76" x14ac:dyDescent="0.4"/>
-    <row r="77" x14ac:dyDescent="0.4"/>
-    <row r="78" x14ac:dyDescent="0.4"/>
-    <row r="79" x14ac:dyDescent="0.4"/>
-    <row r="80" x14ac:dyDescent="0.4"/>
-    <row r="81" x14ac:dyDescent="0.4"/>
-    <row r="82" x14ac:dyDescent="0.4"/>
-    <row r="83" x14ac:dyDescent="0.4"/>
-    <row r="84" x14ac:dyDescent="0.4"/>
-    <row r="85" x14ac:dyDescent="0.4"/>
-    <row r="86" x14ac:dyDescent="0.4"/>
-    <row r="87" x14ac:dyDescent="0.4"/>
-    <row r="88" x14ac:dyDescent="0.4"/>
-    <row r="89" x14ac:dyDescent="0.4"/>
-    <row r="90" x14ac:dyDescent="0.4"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
+++ b/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamat\Git\lantana\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE0740B-8F17-44D9-9706-AC2E60C2F18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA536DB-FC9C-4BF4-8173-3AE0F0207395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="898" xr2:uid="{61CBB803-3BDB-4855-8C1F-1E0881913DE8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>用途</t>
     <rPh sb="0" eb="2">
@@ -866,6 +866,13 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なぜ見つかったし</t>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1901,6 +1908,61 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="742950"/>
+          <a:ext cx="7772400" cy="3969391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>472506</xdr:colOff>
       <xdr:row>89</xdr:row>
@@ -1946,7 +2008,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2001,7 +2063,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2056,7 +2118,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2111,7 +2173,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2166,7 +2228,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2221,7 +2283,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3670,6 +3732,196 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5019675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33B7FBB-0BEA-FA20-2BC7-971F614073A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6953250" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>index</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>このドキュメントの読み方</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>シート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>左</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>シートから順に見て行ってください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>右に行けば行くほど実装に近づいていきます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>図</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上から下へ、左から右へ見てください（なるべく整列しました）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>シートへのリンクと概要</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↓これを見てください</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -4024,7 +4276,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4079,7 +4331,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4134,7 +4386,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4189,7 +4441,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4244,7 +4496,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4299,7 +4551,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4354,64 +4606,9 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>159391</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="742950"/>
-          <a:ext cx="7772400" cy="3969391"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}" name="テーブル4" displayName="テーブル4" ref="A1:B19" totalsRowShown="0">
-  <autoFilter ref="A1:B19" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}" name="テーブル4" displayName="テーブル4" ref="A14:B32" totalsRowShown="0">
+  <autoFilter ref="A14:B32" xr:uid="{0BF7D328-DD4F-4395-BE95-AD1C24335684}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{33667A2D-9E2F-41FD-B9F1-4BC5072C6F97}" name="シートタイトル" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="2" xr3:uid="{39EBC6E4-FB9B-4F13-9E52-EA59DEF3B409}" name="説明"/>
@@ -4734,7 +4931,7 @@
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -4743,22 +4940,26 @@
     <col min="24" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.4"/>
-    <row r="2" x14ac:dyDescent="0.4"/>
-    <row r="3" x14ac:dyDescent="0.4"/>
-    <row r="4" x14ac:dyDescent="0.4"/>
-    <row r="5" x14ac:dyDescent="0.4"/>
-    <row r="6" x14ac:dyDescent="0.4"/>
-    <row r="7" x14ac:dyDescent="0.4"/>
-    <row r="8" x14ac:dyDescent="0.4"/>
-    <row r="9" x14ac:dyDescent="0.4"/>
-    <row r="10" x14ac:dyDescent="0.4"/>
-    <row r="11" x14ac:dyDescent="0.4"/>
-    <row r="12" x14ac:dyDescent="0.4"/>
-    <row r="13" x14ac:dyDescent="0.4"/>
-    <row r="14" x14ac:dyDescent="0.4"/>
-    <row r="15" x14ac:dyDescent="0.4"/>
-    <row r="16" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4"/>
     <row r="17" x14ac:dyDescent="0.4"/>
     <row r="18" x14ac:dyDescent="0.4"/>
     <row r="19" x14ac:dyDescent="0.4"/>
@@ -5778,10 +5979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0815496-4F9B-47FE-B548-8030A1C1A6F3}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5791,183 +5992,201 @@
     <col min="3" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B14" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B32" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="33" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="34" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="35" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="36" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="lantana!A1" display="lantana" xr:uid="{92307938-0266-4B0E-AF91-0534A4026E26}"/>
-    <hyperlink ref="A3" location="index!A1" display="index" xr:uid="{281F3D6B-E22E-4E9F-950F-D1E0EA853A13}"/>
-    <hyperlink ref="A4" location="開発環境!A1" display="開発環境" xr:uid="{FCA410DD-082A-4487-A1B7-21A757FB6989}"/>
-    <hyperlink ref="A5" location="論理ER図!A1" display="論理ER図" xr:uid="{07298365-D7D0-472C-9F6D-DB04D72ABAB7}"/>
-    <hyperlink ref="A9" location="サーバサイド論理クラス図!A1" display="サーバサイド論理クラス図" xr:uid="{ECF172B3-87BD-4FE9-A6D0-735E82D72D82}"/>
-    <hyperlink ref="A10" location="画面論理クラス図!A1" display="画面論理クラス図" xr:uid="{168C7B26-CD79-4A01-B2A2-B7FA89B20659}"/>
-    <hyperlink ref="A11" location="物理ER図!A1" display="物理ER図" xr:uid="{6A6BC364-9BFC-4C20-ACBF-5AB75791C5AA}"/>
-    <hyperlink ref="A12" location="サーバサイド物理クラス図!A1" display="サーバサイド物理クラス図" xr:uid="{551EF2B3-882A-426B-95F2-9847AC541811}"/>
-    <hyperlink ref="A14" location="画面物理クラス図2!A1" display="画面物理クラス図2" xr:uid="{2E5BC1F6-E873-4A82-BE6A-6076AF49A23E}"/>
-    <hyperlink ref="A18" location="APIアドレス一覧!A1" display="APIアドレス一覧" xr:uid="{B138C97E-0D9D-4D83-A558-EC1A83C588FC}"/>
-    <hyperlink ref="A19" location="所感・著者紹介・リンク!A1" display="所感・著者紹介・リンク" xr:uid="{6AED2529-7FFE-4A35-B707-23D2D9B3A201}"/>
-    <hyperlink ref="A13" location="画面物理クラス図1!A1" display="画面物理クラス図1" xr:uid="{B7A1A4BC-99F1-417A-A3AE-884FF0373152}"/>
-    <hyperlink ref="A15" location="シーケンス図1!A1" display="シーケンス図1" xr:uid="{2681AEDE-D7B7-4C42-9A86-A69400B50E52}"/>
-    <hyperlink ref="A16" location="シーケンス図2!A1" display="シーケンス図2" xr:uid="{3DD87B47-4A4B-4207-9EBF-E2E551B5398A}"/>
-    <hyperlink ref="A17" location="シーケンス図3!A1" display="シーケンス図3" xr:uid="{61367FE4-C33C-43CF-8455-984A12FD56F0}"/>
-    <hyperlink ref="A6" location="サーバサイド概要クラス図!A1" display="サーバサイド概要クラス図" xr:uid="{F86E1CD2-C6E0-4441-9600-02215E73CF14}"/>
-    <hyperlink ref="A7" location="画面概要クラス図1!A1" display="画面概要クラス図1" xr:uid="{E29EEB59-C50A-41A5-B932-6546D904DAB1}"/>
-    <hyperlink ref="A8" location="画面概要クラス図2!A1" display="画面概要クラス図2" xr:uid="{39C1DA43-C78D-4892-A904-53F9D3456849}"/>
+    <hyperlink ref="A15" location="lantana!A1" display="lantana" xr:uid="{92307938-0266-4B0E-AF91-0534A4026E26}"/>
+    <hyperlink ref="A16" location="index!A1" display="index" xr:uid="{281F3D6B-E22E-4E9F-950F-D1E0EA853A13}"/>
+    <hyperlink ref="A17" location="開発環境!A1" display="開発環境" xr:uid="{FCA410DD-082A-4487-A1B7-21A757FB6989}"/>
+    <hyperlink ref="A18" location="論理ER図!A1" display="論理ER図" xr:uid="{07298365-D7D0-472C-9F6D-DB04D72ABAB7}"/>
+    <hyperlink ref="A22" location="サーバサイド論理クラス図!A1" display="サーバサイド論理クラス図" xr:uid="{ECF172B3-87BD-4FE9-A6D0-735E82D72D82}"/>
+    <hyperlink ref="A23" location="画面論理クラス図!A1" display="画面論理クラス図" xr:uid="{168C7B26-CD79-4A01-B2A2-B7FA89B20659}"/>
+    <hyperlink ref="A24" location="物理ER図!A1" display="物理ER図" xr:uid="{6A6BC364-9BFC-4C20-ACBF-5AB75791C5AA}"/>
+    <hyperlink ref="A25" location="サーバサイド物理クラス図!A1" display="サーバサイド物理クラス図" xr:uid="{551EF2B3-882A-426B-95F2-9847AC541811}"/>
+    <hyperlink ref="A27" location="画面物理クラス図2!A1" display="画面物理クラス図2" xr:uid="{2E5BC1F6-E873-4A82-BE6A-6076AF49A23E}"/>
+    <hyperlink ref="A31" location="APIアドレス一覧!A1" display="APIアドレス一覧" xr:uid="{B138C97E-0D9D-4D83-A558-EC1A83C588FC}"/>
+    <hyperlink ref="A32" location="所感・著者紹介・リンク!A1" display="所感・著者紹介・リンク" xr:uid="{6AED2529-7FFE-4A35-B707-23D2D9B3A201}"/>
+    <hyperlink ref="A26" location="画面物理クラス図1!A1" display="画面物理クラス図1" xr:uid="{B7A1A4BC-99F1-417A-A3AE-884FF0373152}"/>
+    <hyperlink ref="A28" location="シーケンス図1!A1" display="シーケンス図1" xr:uid="{2681AEDE-D7B7-4C42-9A86-A69400B50E52}"/>
+    <hyperlink ref="A29" location="シーケンス図2!A1" display="シーケンス図2" xr:uid="{3DD87B47-4A4B-4207-9EBF-E2E551B5398A}"/>
+    <hyperlink ref="A30" location="シーケンス図3!A1" display="シーケンス図3" xr:uid="{61367FE4-C33C-43CF-8455-984A12FD56F0}"/>
+    <hyperlink ref="A19" location="サーバサイド概要クラス図!A1" display="サーバサイド概要クラス図" xr:uid="{F86E1CD2-C6E0-4441-9600-02215E73CF14}"/>
+    <hyperlink ref="A20" location="画面概要クラス図1!A1" display="画面概要クラス図1" xr:uid="{E29EEB59-C50A-41A5-B932-6546D904DAB1}"/>
+    <hyperlink ref="A21" location="画面概要クラス図2!A1" display="画面概要クラス図2" xr:uid="{39C1DA43-C78D-4892-A904-53F9D3456849}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6069,7 +6288,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFA88EE-2823-451D-B9A3-F87C290AA65E}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
@@ -6132,7 +6351,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B28758-69B0-426B-98D7-243F04207FD3}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="E27" sqref="A27:XFD1048576"/>
@@ -6194,7 +6413,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30676764-2A85-4C84-A6B3-44404CD69804}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="F43" sqref="A43:XFD1048576"/>

--- a/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
+++ b/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamat\Git\lantana\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA536DB-FC9C-4BF4-8173-3AE0F0207395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F783F5E-CE31-4751-8D6F-C982EFC9E69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="898" xr2:uid="{61CBB803-3BDB-4855-8C1F-1E0881913DE8}"/>
   </bookViews>
@@ -1681,8 +1681,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>1048576</xdr:row>
-      <xdr:rowOff>12593</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4564,7 +4564,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>369793</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>1207</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4928,10 +4928,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD35750-36B7-4643-B2FF-83256F861E84}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -4995,16 +4998,23 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398E4518-2E79-41CF-B10B-F6C0FBA3070F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5045,16 +5055,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAE60C7-C979-4A0C-9980-31C5E12827E1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5171,16 +5188,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AE22D9-FCFF-4E03-9FEF-BFCF54C997B6}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5279,16 +5303,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15B52CA-70C6-4A34-A8C3-25B7C4F02852}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5383,16 +5414,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBB82EC-3F9A-46C6-90BD-54B0F479E854}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5468,16 +5506,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F56FAFC-3DE1-4AFD-BAF8-709CE9CBEAA2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5539,16 +5584,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D43F7A-7723-4517-9681-031104C329AF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5611,16 +5663,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202BFA91-78FF-48FF-9402-D2F936B6192D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5920,18 +5979,25 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AE9615-A06D-446E-93B0-9E0B559E3E99}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5972,17 +6038,23 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0815496-4F9B-47FE-B548-8030A1C1A6F3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6184,19 +6256,26 @@
     <hyperlink ref="A21" location="画面概要クラス図2!A1" display="画面概要クラス図2" xr:uid="{39C1DA43-C78D-4892-A904-53F9D3456849}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B0CBB8-656D-479C-9631-9229A80AD390}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6232,16 +6311,23 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381006FE-887D-4829-9FB8-79DE9685E981}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6282,16 +6368,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFA88EE-2823-451D-B9A3-F87C290AA65E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6345,16 +6438,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B28758-69B0-426B-98D7-243F04207FD3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E27" sqref="A27:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6407,16 +6507,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30676764-2A85-4C84-A6B3-44404CD69804}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F43" sqref="A43:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6485,16 +6592,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FA6BA6-539B-4C06-B6BD-73EEBB280DBD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6601,16 +6715,23 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13FEEC5-9E86-4F12-B0CA-1CE96F52012E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:X110"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6747,6 +6868,10 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R気分記録アプリケーション_lantana_開発ドキュメント &amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
+++ b/document/気分記録アプリケーション_lantana_開発ドキュメント.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamat\Git\lantana\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F783F5E-CE31-4751-8D6F-C982EFC9E69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F7B28F-5491-453B-8EA4-B737B87D0193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="898" xr2:uid="{61CBB803-3BDB-4855-8C1F-1E0881913DE8}"/>
   </bookViews>
@@ -1094,7 +1094,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t>5</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
@@ -1531,7 +1531,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>を起動てユーザに気分入力を促すランチャーも合わせて制作する。</a:t>
+            <a:t>を起動してユーザに気分入力を促すランチャーも合わせて制作する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
@@ -4933,7 +4933,7 @@
   </sheetPr>
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5071,7 +5071,7 @@
   <dimension ref="A1:W90"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O1" sqref="A1:XFD1048576"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5318,8 +5318,8 @@
   </sheetPr>
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5679,7 +5679,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6053,8 +6053,8 @@
   </sheetPr>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6274,7 +6274,7 @@
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6326,8 +6326,8 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6383,8 +6383,8 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6453,8 +6453,8 @@
   </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="18.75" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6522,7 +6522,7 @@
   </sheetPr>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6607,7 +6607,7 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6730,7 +6730,7 @@
   </sheetPr>
   <dimension ref="A1:X110"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
